--- a/base/CARGA GESTHOR CONFIO EN TI CASTIGO Y VENCIDA.xlsx
+++ b/base/CARGA GESTHOR CONFIO EN TI CASTIGO Y VENCIDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Desktop\RECUPERADO\CONFIO EN TI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Documents\CallCenter-Excel\CLIENTE-IDE\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{783A4A15-7F75-4F9C-B761-E43EDE9AFE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174FD332-0904-4E29-A408-6A725F8FE1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19695" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>IDCARTERA</t>
   </si>
   <si>
-    <t xml:space="preserve">DNI </t>
-  </si>
-  <si>
     <t>NOMBRE Y APELLIDOS</t>
   </si>
   <si>
@@ -51,24 +48,12 @@
     <t>PRODUCTO</t>
   </si>
   <si>
-    <t xml:space="preserve">FECHA CASTIGO </t>
-  </si>
-  <si>
     <t>MONEDA</t>
   </si>
   <si>
     <t>CAPITAL</t>
   </si>
   <si>
-    <t xml:space="preserve">DEUDA TOTAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPAÑA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RANGO </t>
-  </si>
-  <si>
     <t>DIRECCION COMPLETA</t>
   </si>
   <si>
@@ -472,6 +457,21 @@
   </si>
   <si>
     <t>Agencia San Miguel</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>FECHA CASTIGO</t>
+  </si>
+  <si>
+    <t>DEUDA TOTAL</t>
+  </si>
+  <si>
+    <t>CAMPAÑA</t>
+  </si>
+  <si>
+    <t>RANGO</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -827,58 +829,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="S1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -886,28 +888,28 @@
         <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2">
         <v>1185.18</v>
@@ -919,13 +921,13 @@
         <v>681.88</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -936,28 +938,28 @@
         <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2">
         <v>38920.25</v>
@@ -969,13 +971,13 @@
         <v>3113</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P3">
         <v>3</v>
@@ -986,28 +988,28 @@
         <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J4" s="2">
         <v>2585.6999999999998</v>
@@ -1019,13 +1021,13 @@
         <v>346.03</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -1036,28 +1038,28 @@
         <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J5" s="2">
         <v>203.81</v>
@@ -1069,13 +1071,13 @@
         <v>122.96</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P5">
         <v>3</v>
@@ -1086,28 +1088,28 @@
         <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J6" s="2">
         <v>9314.11</v>
@@ -1119,13 +1121,13 @@
         <v>1000.34</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P6">
         <v>3</v>
@@ -1136,28 +1138,28 @@
         <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2">
         <v>5145.63</v>
@@ -1169,13 +1171,13 @@
         <v>430.89</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P7">
         <v>3</v>
@@ -1186,28 +1188,28 @@
         <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J8" s="2">
         <v>3181.88</v>
@@ -1219,13 +1221,13 @@
         <v>493.34</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P8">
         <v>3</v>
@@ -1236,28 +1238,28 @@
         <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J9" s="2">
         <v>8258.82</v>
@@ -1269,13 +1271,13 @@
         <v>704.28</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P9">
         <v>3</v>
@@ -1286,28 +1288,28 @@
         <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J10" s="2">
         <v>646.21</v>
@@ -1319,13 +1321,13 @@
         <v>126.21</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P10">
         <v>3</v>
@@ -1336,28 +1338,28 @@
         <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J11" s="2">
         <v>646.63</v>
@@ -1369,13 +1371,13 @@
         <v>125.16</v>
       </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P11">
         <v>3</v>
@@ -1386,28 +1388,28 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J12" s="2">
         <v>14068.53</v>
@@ -1419,13 +1421,13 @@
         <v>591.48</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P12">
         <v>3</v>
@@ -1436,28 +1438,28 @@
         <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J13" s="2">
         <v>186.11</v>
@@ -1469,13 +1471,13 @@
         <v>205.21</v>
       </c>
       <c r="M13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -1486,28 +1488,28 @@
         <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J14" s="2">
         <v>7388.59</v>
@@ -1519,13 +1521,13 @@
         <v>585.95000000000005</v>
       </c>
       <c r="M14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -1536,28 +1538,28 @@
         <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J15" s="2">
         <v>2412.6</v>
@@ -1569,13 +1571,13 @@
         <v>736.59</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P15">
         <v>3</v>
@@ -1586,28 +1588,28 @@
         <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J16" s="2">
         <v>1732.92</v>
@@ -1619,13 +1621,13 @@
         <v>705.28</v>
       </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P16">
         <v>3</v>
@@ -1636,28 +1638,28 @@
         <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J17" s="2">
         <v>4758.3500000000004</v>
@@ -1669,13 +1671,13 @@
         <v>731.46</v>
       </c>
       <c r="M17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P17">
         <v>4</v>
@@ -1686,28 +1688,28 @@
         <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J18" s="2">
         <v>4687.0200000000004</v>
@@ -1719,13 +1721,13 @@
         <v>888.33</v>
       </c>
       <c r="M18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P18">
         <v>4</v>
@@ -1736,28 +1738,28 @@
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J19" s="2">
         <v>2806.99</v>
@@ -1769,13 +1771,13 @@
         <v>384.64</v>
       </c>
       <c r="M19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P19">
         <v>4</v>
@@ -1786,28 +1788,28 @@
         <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J20" s="2">
         <v>749.29</v>
@@ -1819,13 +1821,13 @@
         <v>44.2</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P20">
         <v>4</v>
@@ -1836,28 +1838,28 @@
         <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J21" s="2">
         <v>3398.47</v>
@@ -1869,13 +1871,13 @@
         <v>214.74</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O21" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P21">
         <v>4</v>
@@ -1886,28 +1888,28 @@
         <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J22" s="2">
         <v>1272.9100000000001</v>
@@ -1919,13 +1921,13 @@
         <v>247.99</v>
       </c>
       <c r="M22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N22" t="s">
+        <v>134</v>
+      </c>
+      <c r="O22" t="s">
         <v>139</v>
-      </c>
-      <c r="O22" t="s">
-        <v>144</v>
       </c>
       <c r="P22">
         <v>4</v>
@@ -1936,28 +1938,28 @@
         <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J23" s="2">
         <v>3367.07</v>
@@ -1969,13 +1971,13 @@
         <v>840.71</v>
       </c>
       <c r="M23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P23">
         <v>4</v>
@@ -1986,28 +1988,28 @@
         <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J24" s="2">
         <v>186</v>
@@ -2019,13 +2021,13 @@
         <v>274.08</v>
       </c>
       <c r="M24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N24" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="O24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P24">
         <v>9</v>

--- a/base/CARGA GESTHOR CONFIO EN TI CASTIGO Y VENCIDA.xlsx
+++ b/base/CARGA GESTHOR CONFIO EN TI CASTIGO Y VENCIDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Documents\CallCenter-Excel\CLIENTE-IDE\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174FD332-0904-4E29-A408-6A725F8FE1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6643A5-F455-4144-A50B-8B23A7EA7E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$I$1:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$1:$B$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -956,7 +956,7 @@
         <v>99</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -1006,7 +1006,7 @@
         <v>99</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
@@ -1056,7 +1056,7 @@
         <v>99</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -1106,7 +1106,7 @@
         <v>99</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -1156,7 +1156,7 @@
         <v>99</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -1206,7 +1206,7 @@
         <v>99</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -1256,7 +1256,7 @@
         <v>99</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -1306,7 +1306,7 @@
         <v>99</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -1356,7 +1356,7 @@
         <v>99</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -1406,7 +1406,7 @@
         <v>99</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -1456,7 +1456,7 @@
         <v>99</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -1506,7 +1506,7 @@
         <v>99</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1556,7 +1556,7 @@
         <v>99</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1606,7 +1606,7 @@
         <v>99</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -2034,6 +2034,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B25" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>